--- a/ToyData.xlsx
+++ b/ToyData.xlsx
@@ -1,39 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\周浩麟\交大\研一\研一下\助教\20-21算法课助教\CS214算法课项目\Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView windowWidth="26880" windowHeight="12720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Inter-Datacenter Links" sheetId="1" r:id="rId1"/>
     <sheet name="Job List" sheetId="2" r:id="rId2"/>
     <sheet name="Data Center Details" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
+  <si>
+    <t>Bandwidth/MBps</t>
+  </si>
   <si>
     <t>DC1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DC2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DC3</t>
@@ -69,418 +60,572 @@
     <t>DC13</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Comment: (i,j) denotes the bandwidth from Dci to DCj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job / Required Data amount (MB)</t>
   </si>
   <si>
     <t>A1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>B1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>B2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tB1</t>
   </si>
   <si>
     <t>C1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tC1</t>
+  </si>
+  <si>
+    <t>tC2</t>
   </si>
   <si>
     <t>D1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>D2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>D3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tD1</t>
+  </si>
+  <si>
+    <t>tD2</t>
+  </si>
+  <si>
+    <t>tD3</t>
   </si>
   <si>
     <t>E1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>E2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>E3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>E4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tE1</t>
+  </si>
+  <si>
+    <t>tE2</t>
+  </si>
+  <si>
+    <t>tE3</t>
+  </si>
+  <si>
+    <t>tE5</t>
   </si>
   <si>
     <t>F1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tF1</t>
+  </si>
+  <si>
+    <t>tF2</t>
+  </si>
+  <si>
+    <t>tF3</t>
+  </si>
+  <si>
+    <t>tF4</t>
+  </si>
+  <si>
+    <t>tF5</t>
+  </si>
+  <si>
+    <t>tF6</t>
+  </si>
+  <si>
+    <t>tF7</t>
+  </si>
+  <si>
+    <t>tF8</t>
+  </si>
+  <si>
+    <t>Execution Time (s)</t>
+  </si>
+  <si>
+    <t>Precedence Constraint</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>tA1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ }</t>
   </si>
   <si>
     <t>tA2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tB1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>{ (tB1,tB2) }</t>
   </si>
   <si>
     <t>tB2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tC1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tC2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>{ (tC1,tC2), (tC1,tC3), (tC2,tC3) }</t>
   </si>
   <si>
     <t>tC3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tD1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tD2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tD3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>{ (tD1,tD3), (tD2,tD3), (tD2,tD4), (tD3,tD5) }</t>
   </si>
   <si>
     <t>tD4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tD5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tE1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tE2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tE3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>{ (tE1,tE2), (tE1,tE3), (tE2,tE4), (tE3,tE5), (tE3,tE6), (tE5,tE6) }</t>
   </si>
   <si>
     <t>tE4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tE5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tE6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tF1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tF2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tF3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tF4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tF5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tF6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tF7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tF8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>{ (tF1,tF2), (tF1,tF3), (tF1,tF4), (tF2,tF5), (tF3,tF5), (tF4,tF6), (tF5,tF7), (tF5,tF8), (tF6,tF8), (tF7,tF9), (tF8,tF9) }</t>
   </si>
   <si>
     <t>tF9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Job / Required Data amount (MB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bandwidth/MBps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Execution Time (s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Precedence Constraint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ (tB1,tB2) }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ (tC1,tC2), (tC1,tC3), (tC2,tC3) }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ (tD1,tD3), (tD2,tD3), (tD2,tD4), (tD3,tD5) }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ (tE1,tE2), (tE1,tE3), (tE2,tE4), (tE3,tE5), (tE3,tE6), (tE5,tE6) }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ (tF1,tF2), (tF1,tF3), (tF1,tF4), (tF2,tF5), (tF3,tF5), (tF4,tF6), (tF5,tF7), (tF5,tF8), (tF6,tF8), (tF7,tF9), (tF8,tF9) }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment: tB1,tC1, …in the first row denote the intermediate results produced by these tasks.</t>
   </si>
   <si>
     <t>DC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Num of Slots</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Data Partition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Location</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tB1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tC1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tC2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tD1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tD2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tD3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tE2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tE3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tE5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tE1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tF1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tF2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tF3</t>
-  </si>
-  <si>
-    <t>tF4</t>
-  </si>
-  <si>
-    <t>tF5</t>
-  </si>
-  <si>
-    <t>tF6</t>
-  </si>
-  <si>
-    <t>tF7</t>
-  </si>
-  <si>
-    <t>tF8</t>
-  </si>
-  <si>
-    <t>Comment: tB1,tC1, …in the first row denote the intermediate results produced by these tasks.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -490,16 +635,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,18 +652,260 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -528,42 +915,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -612,7 +1034,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -645,26 +1067,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -697,23 +1102,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -855,76 +1243,71 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="1" customWidth="1"/>
-    <col min="2" max="14" width="6.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.8839285714286" style="1" customWidth="1"/>
+    <col min="2" max="14" width="6.66071428571429" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="20.1" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" ht="20.1" customHeight="1" spans="1:14">
+      <c r="A2" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>1200</v>
@@ -966,9 +1349,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="20.1" customHeight="1" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>100</v>
@@ -1010,9 +1393,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="20.1" customHeight="1" spans="1:14">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>80</v>
@@ -1054,9 +1437,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="20.1" customHeight="1" spans="1:14">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
@@ -1098,9 +1481,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="20.1" customHeight="1" spans="1:14">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>14</v>
@@ -1142,9 +1525,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="20.1" customHeight="1" spans="1:14">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>14</v>
@@ -1186,9 +1569,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="20.1" customHeight="1" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>14</v>
@@ -1230,9 +1613,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" ht="20.1" customHeight="1" spans="1:14">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
@@ -1274,9 +1657,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" ht="20.1" customHeight="1" spans="1:14">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>14</v>
@@ -1318,9 +1701,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" ht="20.1" customHeight="1" spans="1:14">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>14</v>
@@ -1362,9 +1745,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" ht="20.1" customHeight="1" spans="1:14">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>14</v>
@@ -1406,9 +1789,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" ht="20.1" customHeight="1" spans="1:14">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>500</v>
@@ -1450,9 +1833,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" ht="20.1" customHeight="1" spans="1:14">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>14</v>
@@ -1494,161 +1877,162 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="15:15">
       <c r="O15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:AN30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE7" sqref="AE7"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AS14" sqref="AS14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
-    <col min="3" max="38" width="4.6640625" style="1" customWidth="1"/>
-    <col min="39" max="39" width="14.33203125" style="1" customWidth="1"/>
-    <col min="40" max="40" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.4375" customWidth="1"/>
+    <col min="2" max="2" width="12.3303571428571" style="1" customWidth="1"/>
+    <col min="3" max="38" width="4.66071428571429" style="1" customWidth="1"/>
+    <col min="39" max="39" width="14.3303571428571" style="1" customWidth="1"/>
+    <col min="40" max="40" width="18.6607142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="10"/>
+    <row r="1" spans="1:40">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>91</v>
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>93</v>
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>96</v>
+        <v>28</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>99</v>
+        <v>35</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>108</v>
+        <v>44</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN1" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>35</v>
+        <v>53</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40">
+      <c r="A2" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2">
         <v>150</v>
@@ -1658,49 +2042,49 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
       <c r="AM2" s="2">
         <v>1.5</v>
       </c>
-      <c r="AN2" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="AN2" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40">
+      <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2">
         <v>150</v>
@@ -1710,49 +2094,49 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
       <c r="AM3" s="2">
         <v>1.5</v>
       </c>
-      <c r="AN3" s="10"/>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>61</v>
+      <c r="AN3" s="2"/>
+    </row>
+    <row r="4" spans="1:40">
+      <c r="A4" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1762,49 +2146,49 @@
       <c r="F4" s="2">
         <v>180</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
       <c r="AM4" s="2">
         <v>2.5</v>
       </c>
-      <c r="AN4" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="AN4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40">
+      <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1814,217 +2198,217 @@
       <c r="F5" s="2">
         <v>300</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>100</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
       <c r="AM5" s="2">
         <v>1</v>
       </c>
-      <c r="AN5" s="10"/>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="AN5" s="2"/>
+    </row>
+    <row r="6" spans="1:40">
+      <c r="A6" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="2">
         <v>50</v>
       </c>
       <c r="I6" s="2">
         <v>50</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
       <c r="AM6" s="2">
         <v>4</v>
       </c>
-      <c r="AN6" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="AN6" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40">
+      <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2">
         <v>70</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>30</v>
       </c>
-      <c r="K7" s="3"/>
+      <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
       <c r="AM7" s="2">
         <v>1</v>
       </c>
-      <c r="AN7" s="9"/>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="AN7" s="7"/>
+    </row>
+    <row r="8" spans="1:40">
+      <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="2">
         <v>30</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>20</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>20</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
       <c r="AM8" s="2">
         <v>2</v>
       </c>
-      <c r="AN8" s="9"/>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>63</v>
+      <c r="AN8" s="7"/>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="A9" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
       <c r="L9" s="2">
         <v>100</v>
       </c>
@@ -2034,51 +2418,51 @@
       <c r="N9" s="2">
         <v>300</v>
       </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
       <c r="AM9" s="2">
         <v>2</v>
       </c>
-      <c r="AN9" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="AN9" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
+      <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
       <c r="L10" s="2">
         <v>200</v>
       </c>
@@ -2088,101 +2472,101 @@
       <c r="N10" s="2">
         <v>100</v>
       </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
       <c r="AM10" s="2">
         <v>2</v>
       </c>
-      <c r="AN10" s="9"/>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="AN10" s="7"/>
+    </row>
+    <row r="11" spans="1:40">
+      <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2">
         <v>50</v>
       </c>
       <c r="N11" s="2"/>
-      <c r="O11" s="3">
+      <c r="O11" s="2">
         <v>200</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="2">
         <v>200</v>
       </c>
-      <c r="Q11" s="3"/>
+      <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
       <c r="AM11" s="2">
         <v>1.5</v>
       </c>
-      <c r="AN11" s="9"/>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="AN11" s="7"/>
+    </row>
+    <row r="12" spans="1:40">
+      <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="3"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
       <c r="L12" s="2">
         <v>100</v>
       </c>
@@ -2190,109 +2574,109 @@
       <c r="N12" s="2">
         <v>100</v>
       </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3">
+      <c r="O12" s="2"/>
+      <c r="P12" s="2">
         <v>200</v>
       </c>
-      <c r="Q12" s="3"/>
+      <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
       <c r="AM12" s="2">
         <v>1</v>
       </c>
-      <c r="AN12" s="9"/>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="AN12" s="7"/>
+    </row>
+    <row r="13" spans="1:40">
+      <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2">
         <v>200</v>
       </c>
       <c r="N13" s="2"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3">
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2">
         <v>200</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
       <c r="AM13" s="2">
         <v>1</v>
       </c>
-      <c r="AN13" s="9"/>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>64</v>
+      <c r="AN13" s="7"/>
+    </row>
+    <row r="14" spans="1:40">
+      <c r="A14" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="3"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
       <c r="R14" s="2">
         <v>60</v>
       </c>
@@ -2303,50 +2687,50 @@
         <v>120</v>
       </c>
       <c r="U14" s="2"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
       <c r="AM14" s="2">
         <v>4</v>
       </c>
-      <c r="AN14" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="AN14" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
+      <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="3"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2">
         <v>90</v>
@@ -2355,50 +2739,50 @@
       <c r="U15" s="2">
         <v>120</v>
       </c>
-      <c r="V15" s="3">
+      <c r="V15" s="2">
         <v>150</v>
       </c>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
       <c r="AM15" s="2">
         <v>2</v>
       </c>
-      <c r="AN15" s="9"/>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="AN15" s="7"/>
+    </row>
+    <row r="16" spans="1:40">
+      <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="3"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
       <c r="R16" s="2">
         <v>30</v>
       </c>
@@ -2407,100 +2791,100 @@
         <v>50</v>
       </c>
       <c r="U16" s="2"/>
-      <c r="V16" s="3">
+      <c r="V16" s="2">
         <v>80</v>
       </c>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-      <c r="AJ16" s="3"/>
-      <c r="AK16" s="3"/>
-      <c r="AL16" s="3"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
       <c r="AM16" s="2">
         <v>3</v>
       </c>
-      <c r="AN16" s="9"/>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="AN16" s="7"/>
+    </row>
+    <row r="17" spans="1:40">
+      <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="3"/>
+      <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2">
         <v>160</v>
       </c>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3">
+      <c r="V17" s="2"/>
+      <c r="W17" s="2">
         <v>100</v>
       </c>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
       <c r="AM17" s="2">
         <v>2</v>
       </c>
-      <c r="AN17" s="9"/>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
+      <c r="AN17" s="7"/>
+    </row>
+    <row r="18" spans="1:40">
+      <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="3"/>
+      <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2">
@@ -2509,62 +2893,62 @@
       <c r="U18" s="2">
         <v>180</v>
       </c>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3">
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2">
         <v>90</v>
       </c>
-      <c r="Y18" s="3"/>
+      <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
-      <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
-      <c r="AL18" s="3"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
       <c r="AM18" s="2">
         <v>1</v>
       </c>
-      <c r="AN18" s="9"/>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="AN18" s="7"/>
+    </row>
+    <row r="19" spans="1:40">
+      <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="3"/>
+      <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
       <c r="R19" s="2">
         <v>50</v>
       </c>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3">
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2">
         <v>50</v>
       </c>
-      <c r="Y19" s="3">
+      <c r="Y19" s="2">
         <v>180</v>
       </c>
       <c r="Z19" s="2"/>
@@ -2572,49 +2956,49 @@
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
-      <c r="AJ19" s="3"/>
-      <c r="AK19" s="3"/>
-      <c r="AL19" s="3"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
       <c r="AM19" s="2">
         <v>3</v>
       </c>
-      <c r="AN19" s="9"/>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>65</v>
+      <c r="AN19" s="7"/>
+    </row>
+    <row r="20" spans="1:40">
+      <c r="A20" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="3"/>
+      <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
       <c r="Z20" s="2">
         <v>300</v>
       </c>
@@ -2622,49 +3006,49 @@
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="3"/>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
-      <c r="AJ20" s="3"/>
-      <c r="AK20" s="3"/>
-      <c r="AL20" s="3"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
       <c r="AM20" s="2">
         <v>4</v>
       </c>
-      <c r="AN20" s="9" t="s">
+      <c r="AN20" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
+    <row r="21" spans="1:40">
+      <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="3"/>
+      <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2">
         <v>100</v>
@@ -2672,49 +3056,49 @@
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
-      <c r="AE21" s="3">
+      <c r="AE21" s="2">
         <v>100</v>
       </c>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="3"/>
-      <c r="AH21" s="3"/>
-      <c r="AI21" s="3"/>
-      <c r="AJ21" s="3"/>
-      <c r="AK21" s="3"/>
-      <c r="AL21" s="3"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
       <c r="AM21" s="2">
         <v>2</v>
       </c>
-      <c r="AN21" s="9"/>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+      <c r="AN21" s="7"/>
+    </row>
+    <row r="22" spans="1:40">
+      <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="3"/>
+      <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2">
@@ -2722,49 +3106,49 @@
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
-      <c r="AE22" s="3">
+      <c r="AE22" s="2">
         <v>120</v>
       </c>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="3"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
       <c r="AM22" s="2">
         <v>1</v>
       </c>
-      <c r="AN22" s="9"/>
-    </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
+      <c r="AN22" s="7"/>
+    </row>
+    <row r="23" spans="1:40">
+      <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="3"/>
+      <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
@@ -2772,49 +3156,49 @@
         <v>100</v>
       </c>
       <c r="AD23" s="2"/>
-      <c r="AE23" s="3">
+      <c r="AE23" s="2">
         <v>100</v>
       </c>
-      <c r="AF23" s="3"/>
-      <c r="AG23" s="3"/>
-      <c r="AH23" s="3"/>
-      <c r="AI23" s="3"/>
-      <c r="AJ23" s="3"/>
-      <c r="AK23" s="3"/>
-      <c r="AL23" s="3"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
       <c r="AM23" s="2">
         <v>3</v>
       </c>
-      <c r="AN23" s="9"/>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
+      <c r="AN23" s="7"/>
+    </row>
+    <row r="24" spans="1:40">
+      <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
       <c r="Z24" s="2">
         <v>50</v>
       </c>
@@ -2826,51 +3210,51 @@
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3">
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2">
         <v>100</v>
       </c>
-      <c r="AG24" s="3">
+      <c r="AG24" s="2">
         <v>150</v>
       </c>
-      <c r="AH24" s="3"/>
-      <c r="AI24" s="3"/>
-      <c r="AJ24" s="3"/>
-      <c r="AK24" s="3"/>
-      <c r="AL24" s="3"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
       <c r="AM24" s="2">
         <v>1</v>
       </c>
-      <c r="AN24" s="9"/>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+      <c r="AN24" s="7"/>
+    </row>
+    <row r="25" spans="1:40">
+      <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="3"/>
+      <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
       <c r="Z25" s="2">
         <v>70</v>
       </c>
@@ -2880,49 +3264,49 @@
         <v>70</v>
       </c>
       <c r="AD25" s="2"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
-      <c r="AG25" s="3"/>
-      <c r="AH25" s="3">
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2">
         <v>90</v>
       </c>
-      <c r="AI25" s="3"/>
-      <c r="AJ25" s="3"/>
-      <c r="AK25" s="3"/>
-      <c r="AL25" s="3"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
       <c r="AM25" s="2">
         <v>1.5</v>
       </c>
-      <c r="AN25" s="9"/>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
+      <c r="AN25" s="7"/>
+    </row>
+    <row r="26" spans="1:40">
+      <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="3"/>
+      <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2">
@@ -2932,49 +3316,49 @@
       <c r="AD26" s="2">
         <v>200</v>
       </c>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AG26" s="3"/>
-      <c r="AH26" s="3"/>
-      <c r="AI26" s="3">
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2">
         <v>300</v>
       </c>
-      <c r="AJ26" s="3"/>
-      <c r="AK26" s="3"/>
-      <c r="AL26" s="3"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
       <c r="AM26" s="2">
         <v>2.5</v>
       </c>
-      <c r="AN26" s="9"/>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
+      <c r="AN26" s="7"/>
+    </row>
+    <row r="27" spans="1:40">
+      <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="3"/>
+      <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2">
         <v>150</v>
@@ -2984,51 +3368,51 @@
       <c r="AD27" s="2">
         <v>100</v>
       </c>
-      <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
-      <c r="AG27" s="3"/>
-      <c r="AH27" s="3"/>
-      <c r="AI27" s="3">
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2">
         <v>500</v>
       </c>
-      <c r="AJ27" s="3">
+      <c r="AJ27" s="2">
         <v>50</v>
       </c>
-      <c r="AK27" s="3"/>
-      <c r="AL27" s="3"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
       <c r="AM27" s="2">
         <v>2</v>
       </c>
-      <c r="AN27" s="9"/>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
+      <c r="AN27" s="7"/>
+    </row>
+    <row r="28" spans="1:40">
+      <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="3"/>
+      <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
       <c r="Z28" s="2">
         <v>250</v>
       </c>
@@ -3042,315 +3426,316 @@
       <c r="AD28" s="2">
         <v>200</v>
       </c>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
-      <c r="AG28" s="3"/>
-      <c r="AH28" s="3"/>
-      <c r="AI28" s="3"/>
-      <c r="AJ28" s="3"/>
-      <c r="AK28" s="3">
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2">
         <v>200</v>
       </c>
-      <c r="AL28" s="6">
+      <c r="AL28" s="7">
         <v>200</v>
       </c>
       <c r="AM28" s="2">
         <v>3.5</v>
       </c>
-      <c r="AN28" s="9"/>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="AJ29" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK29" s="7"/>
-      <c r="AL29" s="7"/>
-      <c r="AM29" s="7"/>
-      <c r="AN29" s="7"/>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="AJ30" s="8"/>
-      <c r="AK30" s="8"/>
-      <c r="AL30" s="8"/>
-      <c r="AM30" s="8"/>
-      <c r="AN30" s="8"/>
+      <c r="AN28" s="7"/>
+    </row>
+    <row r="29" spans="36:40">
+      <c r="AJ29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+    </row>
+    <row r="30" spans="36:40">
+      <c r="AJ30" s="4"/>
+      <c r="AK30" s="4"/>
+      <c r="AL30" s="4"/>
+      <c r="AM30" s="4"/>
+      <c r="AN30" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AJ29:AN30"/>
-    <mergeCell ref="AN14:AN19"/>
-    <mergeCell ref="AN20:AN28"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="AN6:AN8"/>
-    <mergeCell ref="AN9:AN13"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="A20:A28"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="AN6:AN8"/>
+    <mergeCell ref="AN9:AN13"/>
+    <mergeCell ref="AN14:AN19"/>
+    <mergeCell ref="AN20:AN28"/>
+    <mergeCell ref="AJ29:AN30"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.2232142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7767857142857" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5">
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5">
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
       <c r="D19" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>